--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,14 +12,41 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId1"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId1"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -84,9 +111,9 @@
   <numFmts count="3">
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -269,6 +296,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -710,7 +745,7 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1051,10 +1086,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-541944</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-41628</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,14 +12,138 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId1"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId2"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId1"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId2"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId3"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId4"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId5"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -46,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -108,10 +232,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="8" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -739,7 +864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -766,6 +891,7 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1090,6 +1216,478 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6858332.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>390118</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>33201</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15342064.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>674288</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26845</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1203,7 +1801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>

--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,12 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId1"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId2"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId3"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId4"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId5"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId6"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId1"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId2"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId3"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId4"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId5"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId6"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -71,6 +72,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -169,8 +186,34 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1216,6 +1259,124 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1329,7 +1490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1447,7 +1608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1565,7 +1726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1683,7 +1844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1801,7 +1962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>

--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,13 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId1"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId2"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId3"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId4"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId5"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId6"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId7"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId1"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId2"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId3"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId4"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId5"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId6"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId7"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -114,6 +115,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -212,8 +229,34 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1259,7 +1302,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1292,7 +1335,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>34730</v>
+        <v>79646</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1300,13 +1343,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>10034727.300000001</v>
+        <v>14871302.1</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>4273</v>
+        <v>44916</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1326,13 +1369,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-224561</v>
+        <v>200470</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1340,13 +1383,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>203749</v>
+        <v>446611</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>20</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1354,7 +1397,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>7750</v>
+        <v>10679</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1362,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-1556</v>
+        <v>-3245</v>
       </c>
     </row>
   </sheetData>
@@ -1373,6 +1416,124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1490,7 +1651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1608,7 +1769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1726,7 +1887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1844,7 +2005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1962,7 +2123,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>

--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,14 +12,16 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId1"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId2"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId3"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId4"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId5"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId6"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId7"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId8"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId1"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId2"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId3"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId4"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId5"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId6"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId7"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId8"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId9"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -157,6 +159,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -183,6 +201,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -255,8 +289,60 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1302,6 +1388,357 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22126331.399999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1638239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-233165</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-34275</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18037315.649999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1415,7 +1852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1533,7 +1970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1651,7 +2088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1769,7 +2206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1887,7 +2324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2005,7 +2442,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2121,121 +2558,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1638239</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-233165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-34275</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,16 +12,17 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId1"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId2"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId3"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId4"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId5"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId6"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId7"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId8"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId9"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId10"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId1"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId2"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId3"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId4"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId5"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId6"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId7"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId8"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId9"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId10"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -49,6 +50,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -243,6 +270,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -342,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1388,7 +1431,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1421,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>94153</v>
+        <v>43605</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1429,13 +1472,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>22126331.399999999</v>
+        <v>21792238.550000001</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>14507</v>
+        <v>-29975</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1455,13 +1498,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>605145</v>
+        <v>-139817</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>1864</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1469,13 +1512,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>621968</v>
+        <v>539616</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>166</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1483,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>13002</v>
+        <v>15314</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1491,7 +1534,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4304</v>
+        <v>-3331</v>
       </c>
     </row>
   </sheetData>
@@ -1502,6 +1545,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-541944</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-41628</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1622,6 +1783,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22126331.399999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1734,7 +2013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1852,7 +2131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1970,7 +2249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2088,7 +2367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2206,7 +2485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2324,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2440,122 +2719,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-541944</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-41628</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,17 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId1"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId2"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId3"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId4"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId5"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId6"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId7"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId8"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId9"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId10"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId11"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId1"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId2"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId3"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId4"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId5"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId6"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId7"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId8"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId9"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId10"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId11"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -71,6 +72,32 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -312,6 +339,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -385,7 +428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1431,7 +1474,125 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>54244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22821415.899999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-885371</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>702470</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4608</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1625,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>43605</v>
+        <v>20237</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1472,13 +1633,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>21792238.550000001</v>
+        <v>7498480.9000000004</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>-29975</v>
+        <v>11585</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1498,35 +1659,35 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-139817</v>
+        <v>194361</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2011</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="10">
-        <v>539616</v>
+      <c r="B8" s="1">
+        <v>22928</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>217</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10">
-        <v>15314</v>
+      <c r="B9" s="1">
+        <v>1695</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1534,7 +1695,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3331</v>
+        <v>-270</v>
       </c>
     </row>
   </sheetData>
@@ -1544,7 +1705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1662,7 +1823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1784,6 +1945,124 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21792238.550000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-29975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-139817</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>539616</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3331</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1897,7 +2176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2013,7 +2292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2131,7 +2410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2249,7 +2528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2367,7 +2646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2485,7 +2764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2601,122 +2880,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,18 +12,19 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId1"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId2"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId3"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId4"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId5"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId6"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId7"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId8"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId9"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId10"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId11"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId12"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId1"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId2"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId3"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId4"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId5"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId6"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId7"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId8"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId9"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId10"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId11"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId12"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -35,22 +36,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -98,6 +83,32 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -381,6 +392,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -428,7 +455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1474,7 +1501,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1507,7 +1534,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>54244</v>
+        <v>76693</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1515,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>22821415.899999999</v>
+        <v>22824233.949999999</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>10639</v>
+        <v>22449</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1541,13 +1568,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-885371</v>
+        <v>-2003949</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2313</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1555,13 +1582,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>702470</v>
+        <v>522976</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>542</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1569,7 +1596,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20141</v>
+        <v>19054</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1577,7 +1604,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4608</v>
+        <v>-2848</v>
       </c>
     </row>
   </sheetData>
@@ -1588,6 +1615,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1705,7 +1850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1823,7 +1968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1945,6 +2090,124 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>54244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22821415.899999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-885371</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>702470</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4608</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -2058,7 +2321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2176,7 +2439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2292,7 +2555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2410,7 +2673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2528,7 +2791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2646,7 +2909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2762,122 +3025,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13935425.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-872440</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4848</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,19 +12,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId1"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId2"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId3"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId4"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId5"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId6"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId7"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId8"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId9"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId10"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId11"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId12"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId13"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId1"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId2"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId3"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId4"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId5"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId6"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId7"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId8"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId9"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId10"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId11"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId12"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId13"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -134,13 +135,13 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,6 +157,16 @@
         </r>
       </text>
     </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -434,6 +445,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -455,7 +482,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1501,7 +1528,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1534,7 +1561,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>76693</v>
+        <v>81036</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1542,13 +1569,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>22824233.949999999</v>
+        <v>24020682.41</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>22449</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1568,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-2003949</v>
+        <v>524747</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2209</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1582,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>522976</v>
+        <v>551467</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>475</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1596,7 +1623,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>19054</v>
+        <v>19037</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1604,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-2848</v>
+        <v>-2889</v>
       </c>
     </row>
   </sheetData>
@@ -1615,6 +1642,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15342064.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>674288</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26845</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1732,7 +1877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1850,7 +1995,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1968,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2090,6 +2235,124 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>76693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22824233.949999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2003949</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>522976</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2848</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2203,7 +2466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2321,7 +2584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2439,7 +2702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2555,7 +2818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2673,7 +2936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2791,7 +3054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2907,122 +3170,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15342064.699999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>674288</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>26845</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,20 +12,22 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId1"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId2"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId3"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId4"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId5"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId6"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId7"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId8"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId9"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId10"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId11"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId12"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId13"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId14"/>
+    <sheet name="20180528_Open (2)" sheetId="18" r:id="rId1"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId2"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId3"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId4"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId5"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId6"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId7"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId8"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId9"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId10"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId11"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId12"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId13"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId14"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId15"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -37,6 +39,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -63,6 +81,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -89,6 +123,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -161,6 +211,58 @@
 </comments>
 </file>
 
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -193,22 +295,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -235,22 +321,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -482,7 +552,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -550,7 +620,7 @@
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -740,6 +810,12 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1528,7 +1604,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1561,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>81036</v>
+        <v>89545</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1569,13 +1645,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>24020682.41</v>
+        <v>24183097.699999999</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>4343</v>
+        <v>-2900</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1595,13 +1671,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>524747</v>
+        <v>518782</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2219</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1609,13 +1685,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>551467</v>
+        <v>622447</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1623,7 +1699,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>19037</v>
+        <v>20223</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1631,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-2889</v>
+        <v>-3276</v>
       </c>
     </row>
   </sheetData>
@@ -1642,6 +1718,242 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6858332.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>390118</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>33201</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1759,7 +2071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1877,7 +2189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1995,7 +2307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2113,7 +2425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2235,6 +2547,242 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>92444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>23310543.84</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-22759</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>574656</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>81036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24020682.41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>524747</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>551467</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2889</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -2348,7 +2896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2466,7 +3014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2584,7 +3132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2702,7 +3250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2818,7 +3366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2934,240 +3482,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>34730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10034727.300000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-224561</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>203749</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-1556</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6858332.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>390118</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>33201</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-299</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,22 +12,23 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180528_Open (2)" sheetId="18" r:id="rId1"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId2"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId3"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId4"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId5"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId6"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId7"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId8"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId9"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId10"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId11"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId12"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId13"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId14"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId15"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId16"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId1"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId2"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId3"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId4"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId5"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId6"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId7"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId8"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId9"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId10"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId11"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId12"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId13"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId14"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId15"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId16"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -165,6 +166,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -263,12 +280,54 @@
 </comments>
 </file>
 
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -347,22 +406,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -552,7 +595,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1637,7 +1680,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>89545</v>
+        <v>88741</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1645,13 +1688,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>24183097.699999999</v>
+        <v>25271413.16</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>-2900</v>
+        <v>-804</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1671,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>518782</v>
+        <v>-618575</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2317</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1685,13 +1728,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>622447</v>
+        <v>673270</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>73</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1699,7 +1742,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20223</v>
+        <v>20895</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1707,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3276</v>
+        <v>-3751</v>
       </c>
     </row>
   </sheetData>
@@ -1718,6 +1761,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>79646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14871302.1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200470</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>446611</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1835,7 +1996,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1953,7 +2114,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2071,7 +2232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2189,7 +2350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2307,7 +2468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2425,7 +2586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2547,6 +2708,124 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>89545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24183097.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-2900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>518782</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>622447</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
@@ -2660,7 +2939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2778,7 +3057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2896,7 +3175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3014,7 +3293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3132,7 +3411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3250,7 +3529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3364,122 +3643,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>79646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14871302.1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>200470</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>446611</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3245</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,23 +12,24 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId1"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId2"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId3"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId4"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId5"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId6"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId7"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId8"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId9"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId10"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId11"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId12"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId13"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId14"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId15"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId16"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId17"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId1"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId2"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId3"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId4"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId5"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId6"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId7"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId8"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId9"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId10"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId11"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId12"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId13"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId14"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId15"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId16"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId17"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -208,6 +209,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -306,6 +323,32 @@
 </comments>
 </file>
 
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -354,6 +397,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -432,22 +491,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -595,7 +638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1674,13 +1717,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>31326279.579999998</v>
+        <v>131310386.16000001</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>88741</v>
+        <v>148767</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1688,13 +1731,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>25271413.16</v>
+        <v>29734541.359999999</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>-804</v>
+        <v>60026</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1714,13 +1757,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-618575</v>
+        <v>489719</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2519</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1728,13 +1771,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>673270</v>
+        <v>435290</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>222</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1742,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20895</v>
+        <v>15990</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1750,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3751</v>
+        <v>-3291</v>
       </c>
     </row>
   </sheetData>
@@ -1761,6 +1804,122 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18037315.649999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1878,7 +2037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1996,7 +2155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2114,7 +2273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2232,7 +2391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2350,7 +2509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2468,7 +2627,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2586,7 +2745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2708,6 +2867,124 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>88741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25271413.16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-618575</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>673270</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3751</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2821,7 +3098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2939,7 +3216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3057,7 +3334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3175,7 +3452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3293,7 +3570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3411,7 +3688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3527,120 +3804,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18037315.649999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>605145</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>621968</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>13002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,24 +12,25 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId1"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId2"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId3"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId4"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId5"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId6"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId7"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId8"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId9"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId10"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId11"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId12"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId13"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId14"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId15"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId16"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId17"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId18"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId1"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId2"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId3"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId4"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId5"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId6"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId7"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId8"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId9"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId10"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId11"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId12"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId13"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId14"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId15"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId16"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId17"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId18"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId19"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -251,6 +252,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -324,6 +341,32 @@
 </file>
 
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -439,6 +482,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -517,22 +576,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -638,7 +681,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1690,7 +1733,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1766,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>148767</v>
+        <v>184911</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1731,13 +1774,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>29734541.359999999</v>
+        <v>42540460.810000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>60026</v>
+        <v>36144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1757,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>489719</v>
+        <v>-1961590</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2709</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1771,13 +1814,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>435290</v>
+        <v>512768</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>912</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1785,7 +1828,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15990</v>
+        <v>20183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1793,7 +1836,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3291</v>
+        <v>-3163</v>
       </c>
     </row>
   </sheetData>
@@ -1804,6 +1847,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22126331.399999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1919,7 +2080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2037,7 +2198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2155,7 +2316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2273,7 +2434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2391,7 +2552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2509,7 +2670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2627,7 +2788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2745,7 +2906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2894,13 +3055,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>31326279.579999998</v>
+        <v>131310386.16000001</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>88741</v>
+        <v>148767</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2908,13 +3069,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>25271413.16</v>
+        <v>29734541.359999999</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>-804</v>
+        <v>60026</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2934,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-618575</v>
+        <v>489719</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2519</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2948,13 +3109,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>673270</v>
+        <v>435290</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>222</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2962,7 +3123,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20895</v>
+        <v>15990</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2970,7 +3131,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3751</v>
+        <v>-3291</v>
       </c>
     </row>
   </sheetData>
@@ -2981,6 +3142,124 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>88741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25271413.16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-618575</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>673270</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3751</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3098,7 +3377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3216,7 +3495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3334,7 +3613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3452,7 +3731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3570,7 +3849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3686,122 +3965,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22126331.399999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>605145</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>621968</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>13002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,25 +12,26 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId1"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId2"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId3"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId4"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId5"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId6"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId7"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId8"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId9"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId10"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId11"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId12"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId13"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId14"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId15"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId16"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId17"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId18"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId19"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId1"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId2"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId3"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId4"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId5"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId6"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId7"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId8"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId9"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId10"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId11"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId12"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId13"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId14"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId15"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId16"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId17"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId18"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId19"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -294,6 +295,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -367,6 +384,32 @@
 </file>
 
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -524,6 +567,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -602,22 +661,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -681,7 +724,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1766,7 +1809,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1774,13 +1817,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,13 +1843,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1814,13 +1857,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1828,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1836,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -1847,6 +1890,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21792238.550000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-29975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-139817</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>539616</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3331</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -1964,7 +2125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2080,7 +2241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2198,7 +2359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2316,7 +2477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2434,7 +2595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2552,7 +2713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2670,7 +2831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2788,7 +2949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2906,7 +3067,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3023,7 +3302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3141,7 +3420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3259,7 +3538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3377,7 +3656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3495,7 +3774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3613,7 +3892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3731,7 +4010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3847,122 +4126,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>21792238.550000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-29975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-139817</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>539616</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>15314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3331</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,26 +12,28 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId1"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId2"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId3"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId4"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId5"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId6"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId7"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId8"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId9"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId10"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId11"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId12"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId13"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId14"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId15"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId16"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId17"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId18"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId19"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId20"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId1"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId2"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId3"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId4"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId5"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId6"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId7"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId8"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId9"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId10"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId11"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId12"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId13"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId14"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId15"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId16"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId17"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId18"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId19"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId20"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId21"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -85,22 +87,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -337,6 +323,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -363,6 +365,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -477,6 +495,58 @@
 </comments>
 </file>
 
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -609,6 +679,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -630,58 +716,6 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="B7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="B7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -723,8 +757,60 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1809,7 +1895,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>240574</v>
+        <v>292922</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1817,13 +1903,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>43776102.269999996</v>
+        <v>51830161.809999995</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>55664</v>
+        <v>9176</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-721746</v>
+        <v>-342341</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3759</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1857,13 +1943,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>471960</v>
+        <v>860582</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1871,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>18527</v>
+        <v>23208</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1879,7 +1965,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-2826</v>
+        <v>-4664</v>
       </c>
     </row>
   </sheetData>
@@ -1890,6 +1976,242 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>76693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22824233.949999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2003949</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>522976</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2848</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>54244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22821415.899999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-885371</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>702470</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4608</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2007,7 +2329,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2125,7 +2447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2241,7 +2563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2359,7 +2681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2477,7 +2799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2595,7 +2917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2713,7 +3035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2831,7 +3153,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>283747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41528622.899999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1162709</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>79485</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>21262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4650</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2949,7 +3389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3067,7 +3507,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1638239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-233165</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-34275</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3105,7 +3662,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3113,13 +3670,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3139,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3153,13 +3710,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3167,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3175,7 +3732,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -3185,12 +3742,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3198,7 +3755,7 @@
     <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="6"/>
   </cols>
@@ -3217,13 +3774,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>31326279.579999998</v>
+        <v>131310386.16000001</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>2754</v>
+        <v>184911</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3231,13 +3788,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>1638239</v>
+        <v>42540460.810000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>2754</v>
+        <v>36144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3256,53 +3813,54 @@
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9">
-        <v>-233165</v>
+      <c r="B7" s="1">
+        <v>-1961590</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>190</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="9">
-        <v>-34275</v>
+      <c r="B8" s="10">
+        <v>512768</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>150</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="9">
-        <v>-372</v>
+      <c r="B9" s="10">
+        <v>20183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9">
-        <v>388</v>
+      <c r="B10" s="1">
+        <v>-3163</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3420,7 +3978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3538,7 +4096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3656,7 +4214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3774,7 +4332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3890,240 +4448,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>76693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22824233.949999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-2003949</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>522976</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2848</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>54244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22821415.899999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-885371</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>702470</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>20141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4608</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,28 +12,29 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId1"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId2"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId3"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId4"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId5"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId6"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId7"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId8"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId9"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId10"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId11"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId12"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId13"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId14"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId15"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId16"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId17"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId18"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId19"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId20"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId21"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId22"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId1"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId2"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId3"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId4"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId5"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId6"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId7"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId8"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId9"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId10"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId11"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId12"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId13"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId14"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId15"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId16"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId17"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId18"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId19"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId20"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId21"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId22"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId23"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -113,22 +114,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -407,6 +392,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -547,6 +548,32 @@
 </comments>
 </file>
 
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -763,6 +790,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -810,7 +853,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1862,7 +1905,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1895,7 +1938,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>292922</v>
+        <v>305765</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1903,13 +1946,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>51830161.809999995</v>
+        <v>53415061.649999999</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>9176</v>
+        <v>12843</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1929,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-342341</v>
+        <v>-378503</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>4374</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1943,13 +1986,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>860582</v>
+        <v>857371</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>462</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1957,7 +2000,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>23208</v>
+        <v>20694</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1965,7 +2008,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4664</v>
+        <v>-4606</v>
       </c>
     </row>
   </sheetData>
@@ -1976,6 +2019,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>81036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24020682.41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>524747</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>551467</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2889</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2093,7 +2254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2211,7 +2372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2329,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2447,7 +2608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2563,7 +2724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2681,7 +2842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2799,7 +2960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2917,7 +3078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3035,7 +3196,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>292922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>51830161.809999995</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-342341</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>860582</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>23208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4664</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3153,7 +3432,360 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-541944</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-41628</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1638239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-233165</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-34275</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3262,477 +3894,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-541944</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-41628</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1638239</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-233165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-34275</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -3780,7 +3941,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3788,13 +3949,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3814,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3828,13 +3989,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3842,7 +4003,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3850,7 +4011,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -3861,6 +4022,124 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3978,7 +4257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4096,7 +4375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4214,7 +4493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4330,122 +4609,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>81036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>24020682.41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>524747</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>551467</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2889</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,29 +12,30 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId1"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId2"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId3"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId4"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId5"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId6"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId7"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId8"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId9"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId10"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId11"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId12"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId13"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId14"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId15"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId16"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId17"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId18"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId19"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId20"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId21"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId22"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId23"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId1"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId2"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId3"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId4"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId5"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId6"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId7"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId8"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId9"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId10"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId11"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId12"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId13"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId14"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId15"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId16"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId17"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId18"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId19"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId20"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId21"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId22"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId23"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId24"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -140,22 +141,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -434,6 +419,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -574,6 +575,32 @@
 </comments>
 </file>
 
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -832,6 +859,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -853,7 +896,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1905,7 +1948,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1938,7 +1981,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>305765</v>
+        <v>348011</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,13 +1989,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>53415061.649999999</v>
+        <v>65020953.43</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>12843</v>
+        <v>42246</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1978,7 +2021,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>4759</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1992,7 +2035,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>395</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2019,6 +2062,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>92444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>23310543.84</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-22759</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>574656</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2136,7 +2297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2254,7 +2415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2372,7 +2533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2490,7 +2651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2608,7 +2769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2724,7 +2885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2842,7 +3003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2960,7 +3121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3078,7 +3239,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>305765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>53415061.649999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3196,7 +3475,478 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-541944</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-41628</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1638239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-233165</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-34275</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3314,478 +4064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13935425.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-872440</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4848</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-541944</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-41628</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1638239</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-233165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-34275</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3894,124 +4173,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -4059,7 +4220,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4067,13 +4228,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4093,13 +4254,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4107,13 +4268,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4121,7 +4282,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4129,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -4140,6 +4301,124 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4257,7 +4536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4375,7 +4654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4491,122 +4770,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>92444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>23310543.84</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-22759</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>574656</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3132</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,30 +12,31 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId1"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId2"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId3"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId4"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId5"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId6"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId7"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId8"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId9"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId10"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId11"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId12"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId13"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId14"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId15"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId16"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId17"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId18"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId19"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId20"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId21"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId22"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId23"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId24"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId1"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId2"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId3"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId4"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId5"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId6"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId7"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId8"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId9"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId10"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId11"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId12"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId13"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId14"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId15"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId16"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId17"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId18"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId19"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId20"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId21"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId22"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId23"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId24"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -89,6 +90,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -167,22 +184,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -503,6 +504,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -576,6 +593,32 @@
 </file>
 
 <file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -896,7 +939,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1981,7 +2024,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1989,13 +2032,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2015,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2029,13 +2072,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2043,7 +2086,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2051,7 +2094,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -2062,6 +2105,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>89545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24183097.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-2900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>518782</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>622447</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2179,7 +2340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2297,7 +2458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2415,7 +2576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2533,7 +2694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2651,7 +2812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2769,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2885,7 +3046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3003,7 +3164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3121,7 +3282,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3239,7 +3518,596 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15342064.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>674288</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26845</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-541944</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-41628</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1638239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-233165</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-34275</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3357,596 +4225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15342064.699999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>674288</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>26845</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13935425.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-872440</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4848</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-541944</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-41628</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1638239</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-233165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-34275</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4064,7 +4343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4173,124 +4452,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -4338,7 +4499,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4346,13 +4507,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4372,13 +4533,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4386,13 +4547,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4400,7 +4561,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4408,7 +4569,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -4419,6 +4580,124 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4536,7 +4815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4652,122 +4931,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>89545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>24183097.699999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-2900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>518782</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>622447</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>20223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3276</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,31 +12,32 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId1"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId2"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId3"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId4"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId5"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId6"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId7"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId8"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId9"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId10"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId11"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId12"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId13"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId14"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId15"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId16"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId17"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId18"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId19"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId20"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId21"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId22"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId23"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId24"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId25"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId1"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId2"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId3"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId4"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId5"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId6"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId7"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId8"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId9"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId10"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId11"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId12"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId13"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId14"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId15"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId16"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId17"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId18"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId19"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId20"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId21"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId22"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId23"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId24"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId25"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId26"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -132,6 +133,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -210,22 +227,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -546,6 +547,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -619,6 +636,32 @@
 </file>
 
 <file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -939,7 +982,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -1991,7 +2034,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2024,7 +2067,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>349547</v>
+        <v>387501</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2032,13 +2075,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>58464888.670000002</v>
+        <v>68700914.390000001</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>1536</v>
+        <v>37954</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2064,7 +2107,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5315</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2078,7 +2121,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>584</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2105,6 +2148,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>88741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25271413.16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-618575</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>673270</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3751</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2222,7 +2383,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2340,7 +2501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2458,7 +2619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2576,7 +2737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2694,7 +2855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2812,7 +2973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2930,7 +3091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3046,7 +3207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3155,124 +3316,6 @@
       </c>
       <c r="B10" s="1">
         <v>-3245</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>34730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10034727.300000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-224561</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>203749</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-1556</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +3363,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3328,13 +3371,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3354,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3368,13 +3411,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3382,7 +3425,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3390,7 +3433,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -3401,6 +3444,124 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3518,7 +3679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3636,7 +3797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3754,7 +3915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3872,7 +4033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3990,7 +4151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4112,6 +4273,124 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -4225,7 +4504,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4343,7 +4622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4452,124 +4731,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -4617,7 +4778,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4625,13 +4786,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4651,13 +4812,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4665,13 +4826,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4679,7 +4840,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4687,7 +4848,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -4698,6 +4859,124 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4813,122 +5092,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>88741</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>25271413.16</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-618575</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>673270</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>20895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3751</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,32 +12,33 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId1"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId2"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId3"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId4"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId5"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId6"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId7"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId8"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId9"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId10"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId11"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId12"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId13"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId14"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId15"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId16"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId17"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId18"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId19"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId20"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId21"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId22"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId23"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId24"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId25"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId26"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId1"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId2"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId3"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId4"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId5"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId6"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId7"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId8"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId9"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId10"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId11"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId12"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId13"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId14"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId15"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId16"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId17"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId18"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId19"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId20"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId21"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId22"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId23"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId24"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId25"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId26"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId27"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -175,6 +176,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -253,22 +270,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -589,6 +590,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -662,6 +679,32 @@
 </file>
 
 <file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -982,7 +1025,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2034,7 +2077,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2067,7 +2110,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>387501</v>
+        <v>418336</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2075,13 +2118,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>68700914.390000001</v>
+        <v>76204818.769999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>37954</v>
+        <v>30835</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2101,13 +2144,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1950640</v>
+        <v>-1400830</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5853</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2115,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>892884</v>
+        <v>1066814</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
@@ -2129,7 +2172,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>16281</v>
+        <v>17618</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2137,7 +2180,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-5228</v>
+        <v>-6181</v>
       </c>
     </row>
   </sheetData>
@@ -2148,6 +2191,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>148767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>29734541.359999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>60026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>489719</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>435290</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2265,7 +2426,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2383,7 +2544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2501,7 +2662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2619,7 +2780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2737,7 +2898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2855,7 +3016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2973,7 +3134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3091,7 +3252,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3207,7 +3368,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>387501</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>68700914.390000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>37954</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1950640</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5853</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>892884</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>16281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-5228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3325,125 +3604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>349547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>58464888.670000002</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1950640</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>892884</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3561,7 +3722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3679,7 +3840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3797,7 +3958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3915,7 +4076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4033,7 +4194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4151,7 +4312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4306,7 +4467,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4314,13 +4475,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4340,13 +4501,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4354,13 +4515,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4368,7 +4529,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4376,7 +4537,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -4387,6 +4548,124 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4504,7 +4783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4622,7 +4901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4731,124 +5010,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -4896,7 +5057,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4904,13 +5065,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4930,13 +5091,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4944,13 +5105,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4958,7 +5119,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4966,7 +5127,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -4981,7 +5142,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5014,7 +5175,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>148767</v>
+        <v>184911</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5022,13 +5183,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>29734541.359999999</v>
+        <v>42540460.810000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>60026</v>
+        <v>36144</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5048,13 +5209,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>489719</v>
+        <v>-1961590</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2709</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5062,13 +5223,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>435290</v>
+        <v>512768</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>912</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5076,7 +5237,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15990</v>
+        <v>20183</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -5084,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3291</v>
+        <v>-3163</v>
       </c>
     </row>
   </sheetData>

--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,33 +12,34 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180613_Open" sheetId="29" r:id="rId1"/>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId2"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId3"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId4"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId5"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId6"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId7"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId8"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId9"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId10"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId11"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId12"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId13"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId14"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId15"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId16"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId17"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId18"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId19"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId20"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId21"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId22"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId23"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId24"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId25"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId26"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId27"/>
+    <sheet name="20180614_Open" sheetId="30" r:id="rId1"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId2"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId3"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId4"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId5"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId6"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId7"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId8"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId9"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId10"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId11"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId12"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId13"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId14"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId15"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId16"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId17"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId18"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId19"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId20"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId21"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId22"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId23"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId24"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId25"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId26"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId27"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -218,6 +219,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -296,22 +313,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -632,6 +633,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -705,6 +722,32 @@
 </file>
 
 <file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1025,7 +1068,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2077,7 +2120,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2110,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>418336</v>
+        <v>410629</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2118,13 +2161,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>76204818.769999996</v>
+        <v>74072950.870000005</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>30835</v>
+        <v>-7707</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2144,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1400830</v>
+        <v>957246</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6109</v>
+        <v>6278</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2158,13 +2201,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>1066814</v>
+        <v>976139</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>670</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2172,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>17618</v>
+        <v>19488</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2180,7 +2223,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-6181</v>
+        <v>-7707</v>
       </c>
     </row>
   </sheetData>
@@ -2191,6 +2234,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2308,7 +2469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2426,7 +2587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2544,7 +2705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2662,7 +2823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2780,7 +2941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2898,7 +3059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3016,7 +3177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3134,7 +3295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3252,7 +3413,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>418336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>76204818.769999996</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1400830</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1066814</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>17618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-6181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3368,7 +3647,950 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>79646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14871302.1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200470</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>446611</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6858332.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>390118</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>33201</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15342064.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>674288</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26845</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-541944</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-41628</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1638239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-233165</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-34275</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3461,1067 +4683,6 @@
       </c>
       <c r="E8" s="3">
         <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>79646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14871302.1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>200470</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>446611</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3245</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>34730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10034727.300000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-224561</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>203749</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-1556</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6858332.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>390118</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>33201</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-299</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15342064.699999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>674288</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>26845</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13935425.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-872440</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4848</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-541944</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-41628</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1638239</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-233165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-34275</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>349547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>58464888.670000002</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1950640</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>892884</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4585,7 +4746,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4593,13 +4754,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4619,13 +4780,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4633,13 +4794,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4647,7 +4808,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4655,7 +4816,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -4666,6 +4827,124 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4783,7 +5062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4901,7 +5180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5010,124 +5289,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -5175,7 +5336,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5183,13 +5344,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5209,13 +5370,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5223,13 +5384,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5237,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -5245,7 +5406,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>

--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,34 +12,35 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180614_Open" sheetId="30" r:id="rId1"/>
-    <sheet name="20180613_Open" sheetId="29" r:id="rId2"/>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId3"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId4"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId5"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId6"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId7"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId8"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId9"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId10"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId11"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId12"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId13"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId14"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId15"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId16"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId17"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId18"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId19"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId20"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId21"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId22"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId23"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId24"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId25"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId26"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId27"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId28"/>
+    <sheet name="20180615_Open" sheetId="31" r:id="rId1"/>
+    <sheet name="20180614_Open" sheetId="30" r:id="rId2"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId3"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId4"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId5"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId6"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId7"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId8"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId9"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId10"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId11"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId12"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId13"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId14"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId15"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId16"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId17"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId18"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId19"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId20"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId21"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId22"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId23"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId24"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId25"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId26"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId27"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId28"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId29"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -261,6 +262,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -339,22 +356,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -675,6 +676,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -748,6 +765,32 @@
 </file>
 
 <file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments28.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1068,7 +1111,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2120,7 +2163,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2196,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>410629</v>
+        <v>427530</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2161,13 +2204,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>74072950.870000005</v>
+        <v>81185862.390000001</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>-7707</v>
+        <v>16901</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2187,13 +2230,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>957246</v>
+        <v>650982</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6278</v>
+        <v>6831</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2201,13 +2244,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>976139</v>
+        <v>738389</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>211</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2215,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>19488</v>
+        <v>13704</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2223,7 +2266,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-7707</v>
+        <v>-4428</v>
       </c>
     </row>
   </sheetData>
@@ -2271,7 +2314,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2279,13 +2322,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2305,13 +2348,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2319,13 +2362,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2333,7 +2376,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2341,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -2352,6 +2395,124 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2469,7 +2630,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2587,7 +2748,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2705,7 +2866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2823,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2941,7 +3102,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3059,7 +3220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3177,7 +3338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3295,7 +3456,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>410629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>74072950.870000005</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-7707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>957246</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>976139</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-7707</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3413,7 +3692,1066 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18037315.649999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>79646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14871302.1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200470</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>446611</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6858332.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>390118</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>33201</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15342064.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>674288</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26845</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-541944</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-41628</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1638239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-233165</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-34275</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3531,1066 +4869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18037315.649999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>605145</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>621968</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>13002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>79646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14871302.1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>200470</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>446611</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3245</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>34730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10034727.300000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-224561</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>203749</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-1556</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6858332.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>390118</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>33201</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-299</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15342064.699999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>674288</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>26845</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13935425.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-872440</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4848</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-541944</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-41628</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1638239</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-233165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-34275</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4683,124 +4962,6 @@
       </c>
       <c r="E8" s="3">
         <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>349547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>58464888.670000002</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1950640</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>892884</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4864,7 +5025,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4872,13 +5033,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4898,13 +5059,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4912,13 +5073,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4926,7 +5087,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4934,7 +5095,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -4945,6 +5106,124 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5062,7 +5341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5180,7 +5459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5296,122 +5575,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,35 +12,36 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180615_Open" sheetId="31" r:id="rId1"/>
-    <sheet name="20180614_Open" sheetId="30" r:id="rId2"/>
-    <sheet name="20180613_Open" sheetId="29" r:id="rId3"/>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId4"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId5"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId6"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId7"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId8"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId9"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId10"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId11"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId12"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId13"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId14"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId15"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId16"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId17"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId18"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId19"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId20"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId21"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId22"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId23"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId24"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId25"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId26"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId27"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId28"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId29"/>
+    <sheet name="20180619_Open" sheetId="32" r:id="rId1"/>
+    <sheet name="20180615_Open" sheetId="31" r:id="rId2"/>
+    <sheet name="20180614_Open" sheetId="30" r:id="rId3"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId4"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId5"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId6"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId7"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId8"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId9"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId10"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId11"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId12"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId13"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId14"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId15"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId16"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId17"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId18"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId19"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId20"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId21"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId22"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId23"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId24"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId25"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId26"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId27"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId28"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId29"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId30"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -304,6 +305,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -382,22 +399,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -718,6 +719,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -791,6 +808,32 @@
 </file>
 
 <file path=xl/comments28.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments29.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1111,7 +1154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2196,7 +2239,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>427530</v>
+        <v>478440</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2204,13 +2247,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81185862.390000001</v>
+        <v>81961840.709999993</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>16901</v>
+        <v>50910</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2230,13 +2273,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>650982</v>
+        <v>1356979</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6831</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2244,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>738389</v>
+        <v>758128</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>573</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2258,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>13704</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2266,7 +2309,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4428</v>
+        <v>-4699</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2324,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2314,7 +2357,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>240574</v>
+        <v>283747</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2322,13 +2365,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>43776102.269999996</v>
+        <v>41528622.899999999</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>55664</v>
+        <v>43173</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2348,13 +2391,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-721746</v>
+        <v>-1162709</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3759</v>
+        <v>3922</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2362,13 +2405,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>471960</v>
+        <v>79485</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>471</v>
+        <v>989</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2376,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>18527</v>
+        <v>21262</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2384,7 +2427,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-2826</v>
+        <v>-4650</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2475,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2440,13 +2483,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2466,13 +2509,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2480,13 +2523,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2494,7 +2537,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2502,7 +2545,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -2513,6 +2556,124 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2630,7 +2791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2748,7 +2909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2866,7 +3027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2984,7 +3145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3102,7 +3263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3220,7 +3381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3338,7 +3499,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>427530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>81185862.390000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>650982</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>738389</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4428</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3456,7 +3735,1067 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22126331.399999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18037315.649999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>79646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14871302.1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200470</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>446611</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6858332.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>390118</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>33201</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15342064.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>674288</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26845</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-541944</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-41628</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3574,1067 +4913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22126331.399999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>605145</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>621968</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>13002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18037315.649999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>605145</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>621968</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>13002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>79646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14871302.1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>200470</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>446611</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3245</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>34730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10034727.300000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-224561</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>203749</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-1556</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6858332.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>390118</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>33201</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-299</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15342064.699999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>674288</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>26845</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13935425.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-872440</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4848</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-541944</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-41628</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4751,7 +5030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4869,7 +5148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4962,124 +5241,6 @@
       </c>
       <c r="E8" s="3">
         <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>349547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>58464888.670000002</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1950640</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>892884</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5143,7 +5304,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5151,13 +5312,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5177,13 +5338,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5191,13 +5352,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5205,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -5213,7 +5374,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -5224,6 +5385,124 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5341,7 +5620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5457,122 +5736,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>283747</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>41528622.899999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-1162709</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>79485</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>21262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,36 +12,37 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180619_Open" sheetId="32" r:id="rId1"/>
-    <sheet name="20180615_Open" sheetId="31" r:id="rId2"/>
-    <sheet name="20180614_Open" sheetId="30" r:id="rId3"/>
-    <sheet name="20180613_Open" sheetId="29" r:id="rId4"/>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId5"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId6"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId7"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId8"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId9"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId10"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId11"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId12"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId13"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId14"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId15"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId16"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId17"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId18"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId19"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId20"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId21"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId22"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId23"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId24"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId25"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId26"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId27"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId28"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId29"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId30"/>
+    <sheet name="20180620_Open " sheetId="33" r:id="rId1"/>
+    <sheet name="20180619_Open" sheetId="32" r:id="rId2"/>
+    <sheet name="20180615_Open" sheetId="31" r:id="rId3"/>
+    <sheet name="20180614_Open" sheetId="30" r:id="rId4"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId5"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId6"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId7"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId8"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId9"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId10"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId11"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId12"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId13"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId14"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId15"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId16"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId17"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId18"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId19"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId20"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId21"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId22"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId23"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId24"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId25"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId26"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId27"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId28"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId29"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId30"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId31"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -347,6 +348,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -425,22 +442,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -761,6 +762,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -901,6 +918,32 @@
 </comments>
 </file>
 
+<file path=xl/comments30.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -1154,7 +1197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2239,7 +2282,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>478440</v>
+        <v>623911</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2247,13 +2290,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81961840.709999993</v>
+        <v>69567134.430000007</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>50910</v>
+        <v>145471</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2273,13 +2316,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1356979</v>
+        <v>326166</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6958</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2287,13 +2330,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>758128</v>
+        <v>589682</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>531</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2301,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15643</v>
+        <v>15169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2309,7 +2352,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4699</v>
+        <v>-5345</v>
       </c>
     </row>
   </sheetData>
@@ -2320,6 +2363,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>292922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>51830161.809999995</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-342341</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>860582</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>23208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4664</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2428,124 +2589,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -2593,7 +2636,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2601,13 +2644,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2627,13 +2670,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2641,13 +2684,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2655,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2663,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -2674,6 +2717,124 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2791,7 +2952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2909,7 +3070,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3027,7 +3188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3145,7 +3306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3263,7 +3424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3372,124 +3533,6 @@
       </c>
       <c r="B10" s="1">
         <v>-2848</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>54244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22821415.899999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-885371</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>702470</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>20141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4608</v>
       </c>
     </row>
   </sheetData>
@@ -3537,7 +3580,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>427530</v>
+        <v>478440</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3545,13 +3588,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81185862.390000001</v>
+        <v>81961840.709999993</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>16901</v>
+        <v>50910</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3571,13 +3614,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>650982</v>
+        <v>1356979</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6831</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3585,13 +3628,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>738389</v>
+        <v>758128</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>573</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3599,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>13704</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3607,7 +3650,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4428</v>
+        <v>-4699</v>
       </c>
     </row>
   </sheetData>
@@ -3618,6 +3661,124 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>54244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22821415.899999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-885371</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>702470</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4608</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3735,7 +3896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3853,7 +4014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3969,7 +4130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4087,7 +4248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4205,7 +4366,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4323,7 +4484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4441,7 +4602,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4559,7 +4720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4677,7 +4838,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>427530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>81185862.390000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>650982</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>738389</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4428</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4795,7 +5074,124 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1638239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-233165</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-34275</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4913,124 +5309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1638239</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-233165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-34275</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5148,7 +5427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5241,124 +5520,6 @@
       </c>
       <c r="E8" s="3">
         <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>349547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>58464888.670000002</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1950640</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>892884</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5422,7 +5583,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5430,13 +5591,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5456,13 +5617,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5470,13 +5631,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5484,7 +5645,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -5492,7 +5653,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -5503,6 +5664,124 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5618,122 +5897,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>292922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>51830161.809999995</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-342341</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>860582</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>23208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4664</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,37 +12,38 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180620_Open " sheetId="33" r:id="rId1"/>
-    <sheet name="20180619_Open" sheetId="32" r:id="rId2"/>
-    <sheet name="20180615_Open" sheetId="31" r:id="rId3"/>
-    <sheet name="20180614_Open" sheetId="30" r:id="rId4"/>
-    <sheet name="20180613_Open" sheetId="29" r:id="rId5"/>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId6"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId7"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId8"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId9"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId10"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId11"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId12"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId13"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId14"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId15"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId16"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId17"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId18"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId19"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId20"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId21"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId22"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId23"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId24"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId25"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId26"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId27"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId28"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId29"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId30"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId31"/>
+    <sheet name="20180621_Open" sheetId="34" r:id="rId1"/>
+    <sheet name="20180620_Open " sheetId="33" r:id="rId2"/>
+    <sheet name="20180619_Open" sheetId="32" r:id="rId3"/>
+    <sheet name="20180615_Open" sheetId="31" r:id="rId4"/>
+    <sheet name="20180614_Open" sheetId="30" r:id="rId5"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId6"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId7"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId8"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId9"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId10"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId11"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId12"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId13"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId14"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId15"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId16"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId17"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId18"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId19"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId20"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId21"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId22"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId23"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId24"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId25"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId26"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId27"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId28"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId29"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId30"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId31"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId32"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -390,6 +391,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -510,22 +527,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -804,6 +805,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -944,6 +961,32 @@
 </comments>
 </file>
 
+<file path=xl/comments31.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -1197,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2249,7 +2292,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2282,7 +2325,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>623911</v>
+        <v>599839</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2290,13 +2333,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>69567134.430000007</v>
+        <v>74480179.640000001</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>145471</v>
+        <v>-24072</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2316,13 +2359,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>326166</v>
+        <v>-373536</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6713</v>
+        <v>7162</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2330,13 +2373,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>589682</v>
+        <v>596472</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>1953</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2344,7 +2387,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15169</v>
+        <v>15744</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2352,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-5345</v>
+        <v>-4661</v>
       </c>
     </row>
   </sheetData>
@@ -2363,6 +2406,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>305765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>53415061.649999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2480,7 +2641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2589,124 +2750,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -2754,7 +2797,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2762,13 +2805,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2788,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2802,13 +2845,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2816,7 +2859,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2824,7 +2867,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -2835,6 +2878,124 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2952,7 +3113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3070,7 +3231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3188,7 +3349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3306,7 +3467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3415,124 +3576,6 @@
       </c>
       <c r="B10" s="1">
         <v>-2889</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>76693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22824233.949999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-2003949</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>522976</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2848</v>
       </c>
     </row>
   </sheetData>
@@ -3580,7 +3623,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>478440</v>
+        <v>623911</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3588,13 +3631,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81961840.709999993</v>
+        <v>69567134.430000007</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>50910</v>
+        <v>145471</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3614,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1356979</v>
+        <v>326166</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6958</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3628,13 +3671,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>758128</v>
+        <v>589682</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>531</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3642,7 +3685,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15643</v>
+        <v>15169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3650,7 +3693,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4699</v>
+        <v>-5345</v>
       </c>
     </row>
   </sheetData>
@@ -3661,6 +3704,124 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>76693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22824233.949999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2003949</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>522976</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2848</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3778,7 +3939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3896,7 +4057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4014,7 +4175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4130,7 +4291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4248,7 +4409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4366,7 +4527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4484,7 +4645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4602,7 +4763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4711,124 +4872,6 @@
       </c>
       <c r="B10" s="1">
         <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
       </c>
     </row>
   </sheetData>
@@ -4876,7 +4919,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>427530</v>
+        <v>478440</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4884,13 +4927,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81185862.390000001</v>
+        <v>81961840.709999993</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>16901</v>
+        <v>50910</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4910,13 +4953,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>650982</v>
+        <v>1356979</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6831</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4924,13 +4967,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>738389</v>
+        <v>758128</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>573</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4938,7 +4981,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>13704</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4946,7 +4989,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4428</v>
+        <v>-4699</v>
       </c>
     </row>
   </sheetData>
@@ -4957,6 +5000,124 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5074,7 +5235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5196,6 +5357,124 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>427530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>81185862.390000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>650982</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>738389</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4428</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -5309,7 +5588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5427,7 +5706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5520,124 +5799,6 @@
       </c>
       <c r="E8" s="3">
         <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>349547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>58464888.670000002</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1950640</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>892884</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5701,7 +5862,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5709,13 +5870,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5735,13 +5896,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5749,13 +5910,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5763,7 +5924,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -5771,7 +5932,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -5786,7 +5947,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -5819,7 +5980,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>305765</v>
+        <v>348011</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5827,13 +5988,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>53415061.649999999</v>
+        <v>65020953.43</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>12843</v>
+        <v>42246</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5859,7 +6020,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>4759</v>
+        <v>5231</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5873,7 +6034,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>395</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">

--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,38 +12,39 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180621_Open" sheetId="34" r:id="rId1"/>
-    <sheet name="20180620_Open " sheetId="33" r:id="rId2"/>
-    <sheet name="20180619_Open" sheetId="32" r:id="rId3"/>
-    <sheet name="20180615_Open" sheetId="31" r:id="rId4"/>
-    <sheet name="20180614_Open" sheetId="30" r:id="rId5"/>
-    <sheet name="20180613_Open" sheetId="29" r:id="rId6"/>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId7"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId8"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId9"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId10"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId11"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId12"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId13"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId14"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId15"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId16"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId17"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId18"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId19"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId20"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId21"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId22"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId23"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId24"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId25"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId26"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId27"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId28"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId29"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId30"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId31"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId32"/>
+    <sheet name="20180622_Open" sheetId="35" r:id="rId1"/>
+    <sheet name="20180621_Open" sheetId="34" r:id="rId2"/>
+    <sheet name="20180620_Open " sheetId="33" r:id="rId3"/>
+    <sheet name="20180619_Open" sheetId="32" r:id="rId4"/>
+    <sheet name="20180615_Open" sheetId="31" r:id="rId5"/>
+    <sheet name="20180614_Open" sheetId="30" r:id="rId6"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId7"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId8"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId9"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId10"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId11"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId12"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId13"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId14"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId15"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId16"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId17"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId18"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId19"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId20"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId21"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId22"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId23"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId24"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId25"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId26"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId27"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId28"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId29"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId30"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId31"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId32"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId33"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -433,6 +434,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -553,22 +570,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -847,6 +848,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -987,6 +1004,32 @@
 </comments>
 </file>
 
+<file path=xl/comments32.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -1240,7 +1283,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2292,7 +2335,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2368,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>599839</v>
+        <v>639461</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2333,13 +2376,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>74480179.640000001</v>
+        <v>69313222.710000008</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>-24072</v>
+        <v>39623</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-373536</v>
+        <v>1963417</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>7162</v>
+        <v>6937</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2373,13 +2416,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>596472</v>
+        <v>895725</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>1173</v>
+        <v>879</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2387,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15744</v>
+        <v>14455</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2395,7 +2438,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4661</v>
+        <v>-6474</v>
       </c>
     </row>
   </sheetData>
@@ -2406,6 +2449,124 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2523,7 +2684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2641,7 +2802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2750,124 +2911,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -2915,7 +2958,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2923,13 +2966,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2949,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2963,13 +3006,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2977,7 +3020,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2985,7 +3028,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -2996,6 +3039,124 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3113,7 +3274,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3231,7 +3392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3349,7 +3510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3467,7 +3628,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>599839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>74480179.640000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-24072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-373536</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>7162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>596472</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15744</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4661</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3585,125 +3864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>623911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>69567134.430000007</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>145471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>326166</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>589682</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>15169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5345</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3821,7 +3982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3939,7 +4100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4057,7 +4218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4175,7 +4336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4291,7 +4452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4409,7 +4570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4527,7 +4688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4645,7 +4806,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4754,124 +4915,6 @@
       </c>
       <c r="B10" s="1">
         <v>-81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13935425.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-872440</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4848</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4919,7 +4962,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>478440</v>
+        <v>623911</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4927,13 +4970,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81961840.709999993</v>
+        <v>69567134.430000007</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>50910</v>
+        <v>145471</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4953,13 +4996,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1356979</v>
+        <v>326166</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6958</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4967,13 +5010,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>758128</v>
+        <v>589682</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>531</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4981,7 +5024,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15643</v>
+        <v>15169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4989,7 +5032,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4699</v>
+        <v>-5345</v>
       </c>
     </row>
   </sheetData>
@@ -5000,6 +5043,124 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5117,7 +5278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5235,7 +5396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5390,7 +5551,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>427530</v>
+        <v>478440</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5398,13 +5559,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81185862.390000001</v>
+        <v>81961840.709999993</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>16901</v>
+        <v>50910</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5424,13 +5585,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>650982</v>
+        <v>1356979</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6831</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5438,13 +5599,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>738389</v>
+        <v>758128</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>573</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5452,7 +5613,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>13704</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -5460,7 +5621,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4428</v>
+        <v>-4699</v>
       </c>
     </row>
   </sheetData>
@@ -5471,6 +5632,124 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>427530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>81185862.390000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>650982</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>738389</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4428</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5588,7 +5867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5706,7 +5985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5799,124 +6078,6 @@
       </c>
       <c r="E8" s="3">
         <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>349547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>58464888.670000002</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1950640</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>892884</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5980,7 +6141,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5988,13 +6149,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6014,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -6028,13 +6189,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -6042,7 +6203,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -6050,7 +6211,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>

--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -2335,7 +2335,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2368,7 +2368,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>639461</v>
+        <v>655862</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,13 +2376,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>69313222.710000008</v>
+        <v>71056351.480000004</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>39623</v>
+        <v>16401</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2402,13 +2402,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1963417</v>
+        <v>97064</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6937</v>
+        <v>6922</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2416,13 +2416,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>895725</v>
+        <v>1060182</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>879</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2430,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>14455</v>
+        <v>14800</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2438,7 +2438,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-6474</v>
+        <v>-7608</v>
       </c>
     </row>
   </sheetData>

--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,39 +12,40 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180622_Open" sheetId="35" r:id="rId1"/>
-    <sheet name="20180621_Open" sheetId="34" r:id="rId2"/>
-    <sheet name="20180620_Open " sheetId="33" r:id="rId3"/>
-    <sheet name="20180619_Open" sheetId="32" r:id="rId4"/>
-    <sheet name="20180615_Open" sheetId="31" r:id="rId5"/>
-    <sheet name="20180614_Open" sheetId="30" r:id="rId6"/>
-    <sheet name="20180613_Open" sheetId="29" r:id="rId7"/>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId8"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId9"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId10"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId11"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId12"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId13"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId14"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId15"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId16"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId17"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId18"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId19"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId20"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId21"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId22"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId23"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId24"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId25"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId26"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId27"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId28"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId29"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId30"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId31"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId32"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId33"/>
+    <sheet name="20180626_Open" sheetId="36" r:id="rId1"/>
+    <sheet name="20180622_Open" sheetId="35" r:id="rId2"/>
+    <sheet name="20180621_Open" sheetId="34" r:id="rId3"/>
+    <sheet name="20180620_Open " sheetId="33" r:id="rId4"/>
+    <sheet name="20180619_Open" sheetId="32" r:id="rId5"/>
+    <sheet name="20180615_Open" sheetId="31" r:id="rId6"/>
+    <sheet name="20180614_Open" sheetId="30" r:id="rId7"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId8"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId9"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId10"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId11"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId12"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId13"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId14"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId15"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId16"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId17"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId18"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId19"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId20"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId21"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId22"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId23"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId24"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId25"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId26"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId27"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId28"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId29"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId30"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId31"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId32"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId33"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId34"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -476,6 +477,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -596,22 +613,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -890,6 +891,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1030,6 +1047,32 @@
 </comments>
 </file>
 
+<file path=xl/comments33.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -1283,7 +1326,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2335,7 +2378,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2368,7 +2411,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>655862</v>
+        <v>687962</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2376,13 +2419,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>71056351.480000004</v>
+        <v>62075779.200000003</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>16401</v>
+        <v>32100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2402,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>97064</v>
+        <v>1337781</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6922</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2416,13 +2459,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>1060182</v>
+        <v>1168725</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>359</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2430,7 +2473,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>14800</v>
+        <v>15470</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2438,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-7608</v>
+        <v>-8495</v>
       </c>
     </row>
   </sheetData>
@@ -2486,7 +2529,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2494,13 +2537,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2520,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2534,13 +2577,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2548,7 +2591,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2556,7 +2599,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -2567,6 +2610,124 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2684,7 +2845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2802,7 +2963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2911,124 +3072,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +3119,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3084,13 +3127,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3110,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3124,13 +3167,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3138,7 +3181,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3146,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -3157,6 +3200,124 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3274,7 +3435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3392,7 +3553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3510,7 +3671,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>655862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>71056351.480000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>97064</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1060182</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>14800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-7608</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3628,7 +3907,1067 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>81036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24020682.41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>524747</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>551467</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2889</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>76693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22824233.949999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2003949</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>522976</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2848</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>54244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22821415.899999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-885371</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>702470</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4608</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21792238.550000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-29975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-139817</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>539616</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3331</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22126331.399999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18037315.649999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>79646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14871302.1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200470</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>446611</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6858332.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>390118</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>33201</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3746,366 +5085,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>81036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>24020682.41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>524747</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>551467</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2889</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>76693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22824233.949999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-2003949</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>522976</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2848</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>54244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22821415.899999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-885371</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>702470</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>20141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4608</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B7" sqref="B7:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4138,7 +5123,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>43605</v>
+        <v>19047</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4146,13 +5131,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>21792238.550000001</v>
+        <v>15342064.699999999</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>-29975</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4172,13 +5157,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-139817</v>
+        <v>674288</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2011</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4186,13 +5171,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>539616</v>
+        <v>26845</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>217</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4200,7 +5185,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15314</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4208,7 +5193,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3331</v>
+        <v>-81</v>
       </c>
     </row>
   </sheetData>
@@ -4218,7 +5203,243 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4256,7 +5477,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>94153</v>
+        <v>8653</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4264,13 +5485,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>22126331.399999999</v>
+        <v>5933851.7999999998</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>14507</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4290,35 +5511,35 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>605145</v>
+        <v>-541944</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>1864</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="10">
-        <v>621968</v>
+      <c r="B8" s="1">
+        <v>-41628</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>166</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10">
-        <v>13002</v>
+      <c r="B9" s="1">
+        <v>1031</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4326,7 +5547,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4304</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -4336,1067 +5557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18037315.649999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>605145</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>621968</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>13002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>79646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14871302.1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>200470</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>446611</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3245</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>34730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10034727.300000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-224561</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>203749</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-1556</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6858332.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>390118</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>33201</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-299</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15342064.699999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>674288</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>26845</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>623911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>69567134.430000007</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>145471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>326166</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>589682</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>15169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5345</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13935425.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-872440</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4848</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-541944</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-41628</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5551,7 +5712,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>478440</v>
+        <v>623911</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5559,13 +5720,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81961840.709999993</v>
+        <v>69567134.430000007</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>50910</v>
+        <v>145471</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5585,13 +5746,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1356979</v>
+        <v>326166</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6958</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5599,13 +5760,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>758128</v>
+        <v>589682</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>531</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5613,7 +5774,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15643</v>
+        <v>15169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -5621,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4699</v>
+        <v>-5345</v>
       </c>
     </row>
   </sheetData>
@@ -5669,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>427530</v>
+        <v>478440</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5677,13 +5838,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81185862.390000001</v>
+        <v>81961840.709999993</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>16901</v>
+        <v>50910</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5703,13 +5864,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>650982</v>
+        <v>1356979</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6831</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5717,13 +5878,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>738389</v>
+        <v>758128</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>573</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5731,7 +5892,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>13704</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -5739,7 +5900,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4428</v>
+        <v>-4699</v>
       </c>
     </row>
   </sheetData>
@@ -5750,6 +5911,124 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>427530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>81185862.390000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>650982</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>738389</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4428</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5867,7 +6146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5985,7 +6264,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -6101,122 +6380,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>349547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>58464888.670000002</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1950640</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>892884</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,40 +12,41 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180626_Open" sheetId="36" r:id="rId1"/>
-    <sheet name="20180622_Open" sheetId="35" r:id="rId2"/>
-    <sheet name="20180621_Open" sheetId="34" r:id="rId3"/>
-    <sheet name="20180620_Open " sheetId="33" r:id="rId4"/>
-    <sheet name="20180619_Open" sheetId="32" r:id="rId5"/>
-    <sheet name="20180615_Open" sheetId="31" r:id="rId6"/>
-    <sheet name="20180614_Open" sheetId="30" r:id="rId7"/>
-    <sheet name="20180613_Open" sheetId="29" r:id="rId8"/>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId9"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId10"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId11"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId12"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId13"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId14"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId15"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId16"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId17"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId18"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId19"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId20"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId21"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId22"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId23"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId24"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId25"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId26"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId27"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId28"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId29"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId30"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId31"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId32"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId33"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId34"/>
+    <sheet name="20180627_Open" sheetId="37" r:id="rId1"/>
+    <sheet name="20180626_Open" sheetId="36" r:id="rId2"/>
+    <sheet name="20180622_Open" sheetId="35" r:id="rId3"/>
+    <sheet name="20180621_Open" sheetId="34" r:id="rId4"/>
+    <sheet name="20180620_Open " sheetId="33" r:id="rId5"/>
+    <sheet name="20180619_Open" sheetId="32" r:id="rId6"/>
+    <sheet name="20180615_Open" sheetId="31" r:id="rId7"/>
+    <sheet name="20180614_Open" sheetId="30" r:id="rId8"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId9"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId10"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId11"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId12"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId13"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId14"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId15"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId16"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId17"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId18"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId19"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId20"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId21"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId22"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId23"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId24"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId25"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId26"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId27"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId28"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId29"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId30"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId31"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId32"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId33"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId34"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId35"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -561,6 +562,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -639,22 +656,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -975,6 +976,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1048,6 +1065,32 @@
 </file>
 
 <file path=xl/comments33.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments34.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1326,7 +1369,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2377,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2411,7 +2454,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>687962</v>
+        <v>721947</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2419,13 +2462,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>62075779.200000003</v>
+        <v>69969486.25</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>32100</v>
+        <v>34037</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2445,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1337781</v>
+        <v>-756548</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6449</v>
+        <v>6807</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2459,13 +2502,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>1168725</v>
+        <v>731249</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>723</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2473,7 +2516,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15470</v>
+        <v>12537</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2481,7 +2524,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-8495</v>
+        <v>-6317</v>
       </c>
     </row>
   </sheetData>
@@ -2496,7 +2539,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2529,7 +2572,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>349547</v>
+        <v>387501</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2537,13 +2580,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>58464888.670000002</v>
+        <v>68700914.390000001</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>1536</v>
+        <v>37954</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2569,7 +2612,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5315</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2583,7 +2626,7 @@
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>584</v>
+        <v>670</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2647,7 +2690,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2655,13 +2698,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2681,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2695,13 +2738,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2709,7 +2752,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2717,7 +2760,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -2728,6 +2771,124 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2845,7 +3006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2963,7 +3124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3072,124 +3233,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -3237,7 +3280,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3245,13 +3288,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3271,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3285,13 +3328,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3299,7 +3342,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3307,7 +3350,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -3318,6 +3361,124 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3435,7 +3596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3553,7 +3714,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>687962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>62075779.200000003</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1337781</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1168725</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-8495</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3671,7 +3950,1067 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>92444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>23310543.84</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-22759</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>574656</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>81036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24020682.41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>524747</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>551467</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2889</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>76693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22824233.949999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2003949</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>522976</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2848</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>54244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22821415.899999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-885371</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>702470</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4608</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21792238.550000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-29975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-139817</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>539616</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3331</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22126331.399999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18037315.649999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>79646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14871302.1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200470</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>446611</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3789,484 +5128,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>92444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>23310543.84</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-22759</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>574656</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3132</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>81036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>24020682.41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>524747</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>551467</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2889</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>76693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22824233.949999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-2003949</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>522976</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2848</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>54244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22821415.899999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-885371</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>702470</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>20141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4608</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4299,7 +5166,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>43605</v>
+        <v>30457</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4307,13 +5174,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>21792238.550000001</v>
+        <v>6858332.5</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>-29975</v>
+        <v>9779</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4333,13 +5200,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-139817</v>
+        <v>390118</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2011</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4347,13 +5214,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>539616</v>
+        <v>33201</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>217</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4361,7 +5228,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15314</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4369,7 +5236,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3331</v>
+        <v>-299</v>
       </c>
     </row>
   </sheetData>
@@ -4379,7 +5246,361 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15342064.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>674288</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26845</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4417,7 +5638,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>94153</v>
+        <v>8653</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4425,13 +5646,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>22126331.399999999</v>
+        <v>5933851.7999999998</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>14507</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4451,35 +5672,35 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>605145</v>
+        <v>-541944</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>1864</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="10">
-        <v>621968</v>
+      <c r="B8" s="1">
+        <v>-41628</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>166</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10">
-        <v>13002</v>
+      <c r="B9" s="1">
+        <v>1031</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4487,7 +5708,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4304</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -4497,128 +5718,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18037315.649999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>605145</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>621968</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>13002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -4651,7 +5756,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>79646</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4659,13 +5764,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>14871302.1</v>
+        <v>1638239</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>44916</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4684,290 +5789,53 @@
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1">
-        <v>200470</v>
+      <c r="B7" s="9">
+        <v>-233165</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>1359</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="10">
-        <v>446611</v>
+      <c r="B8" s="9">
+        <v>-34275</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>612</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="10">
-        <v>10679</v>
+      <c r="B9" s="9">
+        <v>-372</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
-        <v>-3245</v>
+      <c r="B10" s="9">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>34730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10034727.300000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-224561</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>203749</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-1556</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6858332.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>390118</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>33201</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-299</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5076,713 +5944,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4661</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15342064.699999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>674288</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>26845</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13935425.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-872440</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4848</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-541944</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-41628</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1638239</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-233165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-34275</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>623911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>69567134.430000007</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>145471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>326166</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>589682</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>15169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5345</v>
       </c>
     </row>
   </sheetData>
@@ -5830,7 +5991,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>478440</v>
+        <v>623911</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5838,13 +5999,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81961840.709999993</v>
+        <v>69567134.430000007</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>50910</v>
+        <v>145471</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5864,13 +6025,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1356979</v>
+        <v>326166</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6958</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5878,13 +6039,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>758128</v>
+        <v>589682</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>531</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -5892,7 +6053,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15643</v>
+        <v>15169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -5900,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4699</v>
+        <v>-5345</v>
       </c>
     </row>
   </sheetData>
@@ -5948,7 +6109,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>427530</v>
+        <v>478440</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5956,13 +6117,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81185862.390000001</v>
+        <v>81961840.709999993</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>16901</v>
+        <v>50910</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5982,13 +6143,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>650982</v>
+        <v>1356979</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6831</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -5996,13 +6157,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>738389</v>
+        <v>758128</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>573</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -6010,7 +6171,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>13704</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -6018,7 +6179,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4428</v>
+        <v>-4699</v>
       </c>
     </row>
   </sheetData>
@@ -6029,6 +6190,124 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>427530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>81185862.390000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>650982</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>738389</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4428</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -6146,7 +6425,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -6262,122 +6541,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>387501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>68700914.390000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>37954</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1950640</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5853</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>892884</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,41 +12,43 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180627_Open" sheetId="37" r:id="rId1"/>
-    <sheet name="20180626_Open" sheetId="36" r:id="rId2"/>
-    <sheet name="20180622_Open" sheetId="35" r:id="rId3"/>
-    <sheet name="20180621_Open" sheetId="34" r:id="rId4"/>
-    <sheet name="20180620_Open " sheetId="33" r:id="rId5"/>
-    <sheet name="20180619_Open" sheetId="32" r:id="rId6"/>
-    <sheet name="20180615_Open" sheetId="31" r:id="rId7"/>
-    <sheet name="20180614_Open" sheetId="30" r:id="rId8"/>
-    <sheet name="20180613_Open" sheetId="29" r:id="rId9"/>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId10"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId11"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId12"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId13"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId14"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId15"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId16"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId17"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId18"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId19"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId20"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId21"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId22"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId23"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId24"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId25"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId26"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId27"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId28"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId29"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId30"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId31"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId32"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId33"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId34"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId35"/>
+    <sheet name="20180629_Open" sheetId="39" r:id="rId1"/>
+    <sheet name="20180628_Open" sheetId="38" r:id="rId2"/>
+    <sheet name="20180627_Open" sheetId="37" r:id="rId3"/>
+    <sheet name="20180626_Open" sheetId="36" r:id="rId4"/>
+    <sheet name="20180622_Open" sheetId="35" r:id="rId5"/>
+    <sheet name="20180621_Open" sheetId="34" r:id="rId6"/>
+    <sheet name="20180620_Open " sheetId="33" r:id="rId7"/>
+    <sheet name="20180619_Open" sheetId="32" r:id="rId8"/>
+    <sheet name="20180615_Open" sheetId="31" r:id="rId9"/>
+    <sheet name="20180614_Open" sheetId="30" r:id="rId10"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId11"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId12"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId13"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId14"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId15"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId16"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId17"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId18"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId19"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId20"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId21"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId22"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId23"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId24"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId25"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId26"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId27"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId28"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId29"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId30"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId31"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId32"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId33"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId34"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId35"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId36"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId37"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -604,6 +606,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -625,58 +643,6 @@
 </file>
 
 <file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="B7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="B7" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -718,13 +684,13 @@
 </comments>
 </file>
 
-<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -740,6 +706,42 @@
         </r>
       </text>
     </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1018,6 +1020,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1044,6 +1062,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1091,6 +1125,58 @@
 </file>
 
 <file path=xl/comments34.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments35.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments36.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1369,7 +1455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2420,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2454,7 +2540,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>721947</v>
+        <v>748993</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2462,13 +2548,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>69969486.25</v>
+        <v>77984807.439999998</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>34037</v>
+        <v>45864</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2488,27 +2574,25 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-756548</v>
+        <v>1093121</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3">
-        <v>6807</v>
-      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>731249</v>
+        <v>564852</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>1396</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2516,7 +2600,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>12537</v>
+        <v>10059</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2524,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-6317</v>
+        <v>-5761</v>
       </c>
     </row>
   </sheetData>
@@ -2535,6 +2619,242 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>410629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>74072950.870000005</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-7707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>957246</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>976139</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19488</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-7707</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>418336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>76204818.769999996</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30835</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1400830</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1066814</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>17618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-6181</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2652,7 +2972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2770,7 +3090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2888,7 +3208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2997,242 +3317,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4606</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>292922</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>51830161.809999995</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9176</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-342341</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>4374</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>860582</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>23208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4664</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>283747</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>41528622.899999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>43173</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-1162709</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3922</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>79485</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>21262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4650</v>
       </c>
     </row>
   </sheetData>
@@ -3280,7 +3364,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>240574</v>
+        <v>292922</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3288,13 +3372,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>43776102.269999996</v>
+        <v>51830161.809999995</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>55664</v>
+        <v>9176</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3314,13 +3398,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-721746</v>
+        <v>-342341</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3759</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3328,13 +3412,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>471960</v>
+        <v>860582</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3342,7 +3426,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>18527</v>
+        <v>23208</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3350,7 +3434,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-2826</v>
+        <v>-4664</v>
       </c>
     </row>
   </sheetData>
@@ -3361,6 +3445,124 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>283747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>41528622.899999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>43173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1162709</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>79485</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>21262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4650</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3398,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3406,13 +3608,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3432,13 +3634,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3446,13 +3648,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3460,7 +3662,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3468,7 +3670,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -3478,7 +3680,239 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>703129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-18818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1612677</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>627610</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-5871</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3596,7 +4030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3714,7 +4148,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>89545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24183097.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-2900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>518782</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>622447</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3746,13 +4298,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>131310386.16000001</v>
+        <v>31326279.579999998</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>687962</v>
+        <v>92444</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3760,13 +4312,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>62075779.200000003</v>
+        <v>23310543.84</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>32100</v>
+        <v>10407</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3786,13 +4338,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1337781</v>
+        <v>-22759</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6449</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3800,13 +4352,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>1168725</v>
+        <v>574656</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>723</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3814,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15470</v>
+        <v>19232</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3822,22 +4374,22 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-8495</v>
+        <v>-3132</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3870,7 +4422,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>89545</v>
+        <v>81036</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3878,13 +4430,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>24183097.699999999</v>
+        <v>24020682.41</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>-2900</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3904,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>518782</v>
+        <v>524747</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2317</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3918,13 +4470,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>622447</v>
+        <v>551467</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3932,7 +4484,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20223</v>
+        <v>19037</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3940,7 +4492,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3276</v>
+        <v>-2889</v>
       </c>
     </row>
   </sheetData>
@@ -3950,7 +4502,1656 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>76693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22824233.949999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2003949</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>522976</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2848</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>54244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22821415.899999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-885371</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>702470</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4608</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21792238.550000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-29975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-139817</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>539616</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3331</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22126331.399999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18037315.649999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>721947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>69969486.25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>34037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-756548</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>731249</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>12537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-6317</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>79646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14871302.1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200470</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>446611</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6858332.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>390118</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>33201</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15342064.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>674288</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26845</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-541944</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-41628</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1638239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-233165</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-34275</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3982,13 +6183,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>31326279.579999998</v>
+        <v>131310386.16000001</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>92444</v>
+        <v>687962</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3996,13 +6197,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>23310543.84</v>
+        <v>62075779.200000003</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>10407</v>
+        <v>32100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4022,13 +6223,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-22759</v>
+        <v>1337781</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2244</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4036,13 +6237,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>574656</v>
+        <v>1168725</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>55</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4050,7 +6251,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>19232</v>
+        <v>15470</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4058,125 +6259,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3132</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>81036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>24020682.41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>524747</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>551467</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2889</v>
+        <v>-8495</v>
       </c>
     </row>
   </sheetData>
@@ -4186,831 +6269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>76693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22824233.949999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-2003949</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>522976</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2848</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>54244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22821415.899999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-885371</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>702470</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>20141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4608</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>21792238.550000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-29975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-139817</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>539616</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>15314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3331</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22126331.399999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>605145</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>621968</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>13002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18037315.649999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>605145</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>621968</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>13002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>79646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14871302.1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>200470</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>446611</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3245</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>34730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10034727.300000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-224561</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>203749</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-1556</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5128,714 +6387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6858332.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>390118</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>33201</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-299</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15342064.699999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>674288</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>26845</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13935425.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-872440</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4848</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-541944</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-41628</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1638239</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-233165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-34275</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5944,242 +6496,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4661</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>623911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>69567134.430000007</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>145471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>326166</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>589682</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>15169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5345</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>478440</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>81961840.709999993</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>50910</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1356979</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6958</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>758128</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>15643</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4699</v>
       </c>
     </row>
   </sheetData>
@@ -6227,7 +6543,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>427530</v>
+        <v>623911</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6235,13 +6551,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81185862.390000001</v>
+        <v>69567134.430000007</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>16901</v>
+        <v>145471</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6261,13 +6577,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>650982</v>
+        <v>326166</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6831</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -6275,13 +6591,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>738389</v>
+        <v>589682</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>573</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -6289,7 +6605,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>13704</v>
+        <v>15169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -6297,7 +6613,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4428</v>
+        <v>-5345</v>
       </c>
     </row>
   </sheetData>
@@ -6312,7 +6628,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -6345,7 +6661,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>410629</v>
+        <v>478440</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6353,13 +6669,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>74072950.870000005</v>
+        <v>81961840.709999993</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>-7707</v>
+        <v>50910</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6379,13 +6695,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>957246</v>
+        <v>1356979</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6278</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -6393,13 +6709,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>976139</v>
+        <v>758128</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>211</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -6407,7 +6723,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>19488</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -6415,7 +6731,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-7707</v>
+        <v>-4699</v>
       </c>
     </row>
   </sheetData>
@@ -6463,7 +6779,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>418336</v>
+        <v>427530</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6471,13 +6787,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>76204818.769999996</v>
+        <v>81185862.390000001</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>30835</v>
+        <v>16901</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6497,13 +6813,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1400830</v>
+        <v>650982</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6109</v>
+        <v>6831</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -6511,13 +6827,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>1066814</v>
+        <v>738389</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>670</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -6525,7 +6841,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>17618</v>
+        <v>13704</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -6533,7 +6849,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-6181</v>
+        <v>-4428</v>
       </c>
     </row>
   </sheetData>

--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,43 +12,44 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180629_Open" sheetId="39" r:id="rId1"/>
-    <sheet name="20180628_Open" sheetId="38" r:id="rId2"/>
-    <sheet name="20180627_Open" sheetId="37" r:id="rId3"/>
-    <sheet name="20180626_Open" sheetId="36" r:id="rId4"/>
-    <sheet name="20180622_Open" sheetId="35" r:id="rId5"/>
-    <sheet name="20180621_Open" sheetId="34" r:id="rId6"/>
-    <sheet name="20180620_Open " sheetId="33" r:id="rId7"/>
-    <sheet name="20180619_Open" sheetId="32" r:id="rId8"/>
-    <sheet name="20180615_Open" sheetId="31" r:id="rId9"/>
-    <sheet name="20180614_Open" sheetId="30" r:id="rId10"/>
-    <sheet name="20180613_Open" sheetId="29" r:id="rId11"/>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId12"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId13"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId14"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId15"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId16"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId17"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId18"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId19"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId20"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId21"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId22"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId23"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId24"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId25"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId26"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId27"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId28"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId29"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId30"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId31"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId32"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId33"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId34"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId35"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId36"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId37"/>
+    <sheet name="20180702_Open" sheetId="40" r:id="rId1"/>
+    <sheet name="20180629_Open" sheetId="39" r:id="rId2"/>
+    <sheet name="20180628_Open" sheetId="38" r:id="rId3"/>
+    <sheet name="20180627_Open" sheetId="37" r:id="rId4"/>
+    <sheet name="20180626_Open" sheetId="36" r:id="rId5"/>
+    <sheet name="20180622_Open" sheetId="35" r:id="rId6"/>
+    <sheet name="20180621_Open" sheetId="34" r:id="rId7"/>
+    <sheet name="20180620_Open " sheetId="33" r:id="rId8"/>
+    <sheet name="20180619_Open" sheetId="32" r:id="rId9"/>
+    <sheet name="20180615_Open" sheetId="31" r:id="rId10"/>
+    <sheet name="20180614_Open" sheetId="30" r:id="rId11"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId12"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId13"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId14"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId15"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId16"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId17"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId18"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId19"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId20"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId21"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId22"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId23"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId24"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId25"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId26"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId27"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId28"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId29"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId30"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId31"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId32"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId33"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId34"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId35"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId36"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId37"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId38"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -690,6 +691,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -768,22 +785,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1104,6 +1105,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1177,6 +1194,32 @@
 </file>
 
 <file path=xl/comments36.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments37.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1455,7 +1498,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2506,7 +2549,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>768972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>82909548.519999996</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>19979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2035096</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>722742</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-6137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
@@ -2540,7 +2699,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>748993</v>
+        <v>427530</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2548,13 +2707,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>77984807.439999998</v>
+        <v>81185862.390000001</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>45864</v>
+        <v>16901</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2574,25 +2733,27 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1093121</v>
+        <v>650982</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>6831</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>564852</v>
+        <v>738389</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>368</v>
+        <v>573</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2600,7 +2761,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>10059</v>
+        <v>13704</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2608,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-5761</v>
+        <v>-4428</v>
       </c>
     </row>
   </sheetData>
@@ -2618,7 +2779,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2736,7 +2897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2854,7 +3015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2947,124 +3108,6 @@
       </c>
       <c r="E8" s="3">
         <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>349547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>58464888.670000002</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1950640</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>892884</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3128,7 +3171,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3136,13 +3179,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3162,13 +3205,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3176,13 +3219,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3190,7 +3233,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3198,7 +3241,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -3209,6 +3252,124 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3326,7 +3487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3444,7 +3605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3553,124 +3714,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +3761,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3726,13 +3769,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3752,13 +3795,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3766,13 +3809,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3780,7 +3823,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3788,7 +3831,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -3799,6 +3842,1302 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>748993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>77984807.439999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1093121</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>564852</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-5761</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>148767</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>29734541.359999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>60026</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>489719</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>435290</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15990</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3291</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>88741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>25271413.16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-804</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-618575</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>673270</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20895</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3751</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>89545</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24183097.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-2900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>518782</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>622447</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3276</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>92444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>23310543.84</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-22759</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>574656</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>81036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24020682.41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>524747</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>551467</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19037</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2889</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>76693</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22824233.949999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>22449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2003949</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>522976</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>19054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-2848</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>54244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22821415.899999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-885371</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>702470</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4608</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>43605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21792238.550000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-29975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-139817</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>539616</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>15314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3331</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22126331.399999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3912,7 +5251,1184 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18037315.649999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>79646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14871302.1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200470</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>446611</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6858332.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>390118</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>33201</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15342064.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>674288</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26845</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-541944</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-41628</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1638239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-233165</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-34275</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>721947</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>69969486.25</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>34037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-756548</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6807</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>731249</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>12537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-6317</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3950,7 +6466,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>148767</v>
+        <v>687962</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3958,13 +6474,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>29734541.359999999</v>
+        <v>62075779.200000003</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>60026</v>
+        <v>32100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3984,13 +6500,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>489719</v>
+        <v>1337781</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>2709</v>
+        <v>6449</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3998,13 +6514,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>435290</v>
+        <v>1168725</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>912</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4012,7 +6528,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15990</v>
+        <v>15470</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4020,7 +6536,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3291</v>
+        <v>-8495</v>
       </c>
     </row>
   </sheetData>
@@ -4030,2246 +6546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>88741</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>25271413.16</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-804</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-618575</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2519</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>673270</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>20895</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3751</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>89545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>24183097.699999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-2900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>518782</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>622447</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>20223</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3276</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>92444</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>23310543.84</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10407</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-22759</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>574656</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3132</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="24" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>81036</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>24020682.41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4343</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>524747</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>551467</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19037</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2889</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>76693</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22824233.949999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>22449</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-2003949</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>522976</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>19054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2848</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>54244</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22821415.899999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-885371</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>702470</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>20141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4608</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>43605</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>21792238.550000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-29975</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-139817</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>539616</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>15314</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3331</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>22126331.399999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>605145</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>621968</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>13002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18037315.649999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>605145</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>621968</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>13002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>721947</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>69969486.25</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>34037</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-756548</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6807</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>731249</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>12537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-6317</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>79646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14871302.1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>200470</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>446611</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3245</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>34730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10034727.300000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-224561</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>203749</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-1556</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6858332.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>390118</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>33201</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-299</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15342064.699999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>674288</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>26845</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13935425.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-872440</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4848</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-541944</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-41628</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1638239</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-233165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-34275</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>687962</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>62075779.200000003</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>32100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1337781</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1168725</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>15470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-8495</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -6387,7 +6664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -6496,124 +6773,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4661</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>623911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>69567134.430000007</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>145471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>326166</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>589682</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>15169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5345</v>
       </c>
     </row>
   </sheetData>
@@ -6661,7 +6820,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>478440</v>
+        <v>623911</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6669,13 +6828,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81961840.709999993</v>
+        <v>69567134.430000007</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>50910</v>
+        <v>145471</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6695,13 +6854,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1356979</v>
+        <v>326166</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6958</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -6709,13 +6868,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>758128</v>
+        <v>589682</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>531</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -6723,7 +6882,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15643</v>
+        <v>15169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -6731,7 +6890,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4699</v>
+        <v>-5345</v>
       </c>
     </row>
   </sheetData>
@@ -6779,7 +6938,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>427530</v>
+        <v>478440</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6787,13 +6946,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81185862.390000001</v>
+        <v>81961840.709999993</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>16901</v>
+        <v>50910</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6813,13 +6972,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>650982</v>
+        <v>1356979</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6831</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -6827,13 +6986,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>738389</v>
+        <v>758128</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>573</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -6841,7 +7000,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>13704</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -6849,7 +7008,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4428</v>
+        <v>-4699</v>
       </c>
     </row>
   </sheetData>

--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,44 +12,45 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180702_Open" sheetId="40" r:id="rId1"/>
-    <sheet name="20180629_Open" sheetId="39" r:id="rId2"/>
-    <sheet name="20180628_Open" sheetId="38" r:id="rId3"/>
-    <sheet name="20180627_Open" sheetId="37" r:id="rId4"/>
-    <sheet name="20180626_Open" sheetId="36" r:id="rId5"/>
-    <sheet name="20180622_Open" sheetId="35" r:id="rId6"/>
-    <sheet name="20180621_Open" sheetId="34" r:id="rId7"/>
-    <sheet name="20180620_Open " sheetId="33" r:id="rId8"/>
-    <sheet name="20180619_Open" sheetId="32" r:id="rId9"/>
-    <sheet name="20180615_Open" sheetId="31" r:id="rId10"/>
-    <sheet name="20180614_Open" sheetId="30" r:id="rId11"/>
-    <sheet name="20180613_Open" sheetId="29" r:id="rId12"/>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId13"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId14"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId15"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId16"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId17"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId18"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId19"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId20"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId21"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId22"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId23"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId24"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId25"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId26"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId27"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId28"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId29"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId30"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId31"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId32"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId33"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId34"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId35"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId36"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId37"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId38"/>
+    <sheet name="20180703_Open" sheetId="41" r:id="rId1"/>
+    <sheet name="20180702_Open" sheetId="40" r:id="rId2"/>
+    <sheet name="20180629_Open" sheetId="39" r:id="rId3"/>
+    <sheet name="20180628_Open" sheetId="38" r:id="rId4"/>
+    <sheet name="20180627_Open" sheetId="37" r:id="rId5"/>
+    <sheet name="20180626_Open" sheetId="36" r:id="rId6"/>
+    <sheet name="20180622_Open" sheetId="35" r:id="rId7"/>
+    <sheet name="20180621_Open" sheetId="34" r:id="rId8"/>
+    <sheet name="20180620_Open " sheetId="33" r:id="rId9"/>
+    <sheet name="20180619_Open" sheetId="32" r:id="rId10"/>
+    <sheet name="20180615_Open" sheetId="31" r:id="rId11"/>
+    <sheet name="20180614_Open" sheetId="30" r:id="rId12"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId13"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId14"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId15"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId16"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId17"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId18"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId19"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId20"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId21"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId22"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId23"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId24"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId25"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId26"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId27"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId28"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId29"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId30"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId31"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId32"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId33"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId34"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId35"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId36"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId37"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId38"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId39"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -733,6 +734,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -811,22 +828,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1147,6 +1148,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1220,6 +1237,32 @@
 </file>
 
 <file path=xl/comments37.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments38.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1498,7 +1541,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2549,8 +2592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2583,7 +2626,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>768972</v>
+        <v>969529</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2591,13 +2634,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>82909548.519999996</v>
+        <v>43228407.590000004</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>19979</v>
+        <v>200557</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2617,25 +2660,27 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-2035096</v>
+        <v>366702</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>5449</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>722742</v>
+        <v>527620</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>564</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2643,7 +2688,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>10020</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2651,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-6137</v>
+        <v>-4844</v>
       </c>
     </row>
   </sheetData>
@@ -2699,7 +2744,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>427530</v>
+        <v>478440</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,13 +2752,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81185862.390000001</v>
+        <v>81961840.709999993</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>16901</v>
+        <v>50910</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2733,13 +2778,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>650982</v>
+        <v>1356979</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6831</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2747,13 +2792,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>738389</v>
+        <v>758128</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>573</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2761,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>13704</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2769,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4428</v>
+        <v>-4699</v>
       </c>
     </row>
   </sheetData>
@@ -2780,6 +2825,124 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>427530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>81185862.390000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>650982</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>738389</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4428</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -2897,7 +3060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3015,7 +3178,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3108,124 +3271,6 @@
       </c>
       <c r="E8" s="3">
         <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>349547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>58464888.670000002</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1950640</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>892884</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3289,7 +3334,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3297,13 +3342,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3323,13 +3368,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3337,13 +3382,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3351,7 +3396,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3359,7 +3404,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -3370,6 +3415,124 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3487,7 +3650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3605,7 +3768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3723,12 +3886,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -3761,7 +3924,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>240574</v>
+        <v>768972</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3769,13 +3932,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>43776102.269999996</v>
+        <v>82909548.519999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>55664</v>
+        <v>19979</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3795,27 +3958,25 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-721746</v>
+        <v>-2035096</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>471960</v>
+        <v>722742</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>471</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3823,7 +3984,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>18527</v>
+        <v>10020</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3831,123 +3992,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-2826</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>748993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>77984807.439999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>45864</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1093121</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>564852</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5761</v>
+        <v>-6137</v>
       </c>
     </row>
   </sheetData>
@@ -3995,7 +4040,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4003,13 +4048,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4029,13 +4074,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4043,13 +4088,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4057,7 +4102,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4065,7 +4110,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -4076,6 +4121,124 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4193,7 +4356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4311,7 +4474,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4429,7 +4592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4547,7 +4710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4665,7 +4828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4783,7 +4946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4901,7 +5064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5019,7 +5182,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>748993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>77984807.439999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>45864</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1093121</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>564852</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-5761</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5137,7 +5416,1066 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18037315.649999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>79646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14871302.1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200470</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>446611</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6858332.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>390118</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>33201</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15342064.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>674288</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26845</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>18784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13935425.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-1453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-872440</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-4848</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>20237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7498480.9000000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>194361</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>22928</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5933851.7999999998</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-541944</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-41628</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>503</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1638239</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-233165</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-34275</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
+        <v>388</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5251,1066 +6589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>94153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>18037315.649999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14507</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>605145</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>621968</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>13002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-4304</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>79646</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14871302.1</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>200470</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>446611</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10679</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-3245</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>34730</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10034727.300000001</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-224561</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>203749</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>7750</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-1556</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>30457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>6858332.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>9779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>390118</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>33201</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2454</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-299</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>19047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>15342064.699999999</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>674288</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>26845</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>2023</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-81</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18784</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>13935425.5</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>-1453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-872440</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-4848</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1482</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>20237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>7498480.9000000004</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11585</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>194361</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>22928</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-270</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5933851.7999999998</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-541944</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-41628</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>503</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>31326279.579999998</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1638239</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>-233165</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9">
-        <v>-34275</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>-372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -6428,7 +6707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -6546,7 +6825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -6664,7 +6943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -6773,124 +7052,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4661</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>623911</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>69567134.430000007</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>145471</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>326166</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>6713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>589682</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>15169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5345</v>
       </c>
     </row>
   </sheetData>
@@ -6938,7 +7099,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>478440</v>
+        <v>623911</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6946,13 +7107,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81961840.709999993</v>
+        <v>69567134.430000007</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>50910</v>
+        <v>145471</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6972,13 +7133,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1356979</v>
+        <v>326166</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6958</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -6986,13 +7147,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>758128</v>
+        <v>589682</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>531</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -7000,7 +7161,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15643</v>
+        <v>15169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -7008,7 +7169,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4699</v>
+        <v>-5345</v>
       </c>
     </row>
   </sheetData>

--- a/期权自营汇报表.xlsx
+++ b/期权自营汇报表.xlsx
@@ -12,45 +12,46 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="6708"/>
   </bookViews>
   <sheets>
-    <sheet name="20180703_Open" sheetId="41" r:id="rId1"/>
-    <sheet name="20180702_Open" sheetId="40" r:id="rId2"/>
-    <sheet name="20180629_Open" sheetId="39" r:id="rId3"/>
-    <sheet name="20180628_Open" sheetId="38" r:id="rId4"/>
-    <sheet name="20180627_Open" sheetId="37" r:id="rId5"/>
-    <sheet name="20180626_Open" sheetId="36" r:id="rId6"/>
-    <sheet name="20180622_Open" sheetId="35" r:id="rId7"/>
-    <sheet name="20180621_Open" sheetId="34" r:id="rId8"/>
-    <sheet name="20180620_Open " sheetId="33" r:id="rId9"/>
-    <sheet name="20180619_Open" sheetId="32" r:id="rId10"/>
-    <sheet name="20180615_Open" sheetId="31" r:id="rId11"/>
-    <sheet name="20180614_Open" sheetId="30" r:id="rId12"/>
-    <sheet name="20180613_Open" sheetId="29" r:id="rId13"/>
-    <sheet name="20180612_Open" sheetId="28" r:id="rId14"/>
-    <sheet name="20180611_Open" sheetId="27" r:id="rId15"/>
-    <sheet name="20180608_Open" sheetId="26" r:id="rId16"/>
-    <sheet name="20180607_Open" sheetId="25" r:id="rId17"/>
-    <sheet name="20180606_Open" sheetId="24" r:id="rId18"/>
-    <sheet name="20180605_Open" sheetId="23" r:id="rId19"/>
-    <sheet name="20180604_Open " sheetId="22" r:id="rId20"/>
-    <sheet name="20180601_Open" sheetId="21" r:id="rId21"/>
-    <sheet name="20180531_Open" sheetId="20" r:id="rId22"/>
-    <sheet name="20180530_Open" sheetId="19" r:id="rId23"/>
-    <sheet name="20180529_Open" sheetId="18" r:id="rId24"/>
-    <sheet name="20180528_Open" sheetId="17" r:id="rId25"/>
-    <sheet name="20180525_Open" sheetId="16" r:id="rId26"/>
-    <sheet name="20180524_Open" sheetId="15" r:id="rId27"/>
-    <sheet name="20180523_Open" sheetId="14" r:id="rId28"/>
-    <sheet name="20180522_Open" sheetId="13" r:id="rId29"/>
-    <sheet name="20180521_Open" sheetId="12" r:id="rId30"/>
-    <sheet name="20180518_Open" sheetId="11" r:id="rId31"/>
-    <sheet name="20180517_Open" sheetId="10" r:id="rId32"/>
-    <sheet name="20180516_Open" sheetId="9" r:id="rId33"/>
-    <sheet name="20180515_Open " sheetId="8" r:id="rId34"/>
-    <sheet name="20180514_Open" sheetId="7" r:id="rId35"/>
-    <sheet name="20180511_Open " sheetId="6" r:id="rId36"/>
-    <sheet name="20180510_Open" sheetId="5" r:id="rId37"/>
-    <sheet name="20180509_Open" sheetId="4" r:id="rId38"/>
-    <sheet name="20180508_Open" sheetId="3" r:id="rId39"/>
+    <sheet name="20180704_Open" sheetId="42" r:id="rId1"/>
+    <sheet name="20180703_Open" sheetId="41" r:id="rId2"/>
+    <sheet name="20180702_Open" sheetId="40" r:id="rId3"/>
+    <sheet name="20180629_Open" sheetId="39" r:id="rId4"/>
+    <sheet name="20180628_Open" sheetId="38" r:id="rId5"/>
+    <sheet name="20180627_Open" sheetId="37" r:id="rId6"/>
+    <sheet name="20180626_Open" sheetId="36" r:id="rId7"/>
+    <sheet name="20180622_Open" sheetId="35" r:id="rId8"/>
+    <sheet name="20180621_Open" sheetId="34" r:id="rId9"/>
+    <sheet name="20180620_Open " sheetId="33" r:id="rId10"/>
+    <sheet name="20180619_Open" sheetId="32" r:id="rId11"/>
+    <sheet name="20180615_Open" sheetId="31" r:id="rId12"/>
+    <sheet name="20180614_Open" sheetId="30" r:id="rId13"/>
+    <sheet name="20180613_Open" sheetId="29" r:id="rId14"/>
+    <sheet name="20180612_Open" sheetId="28" r:id="rId15"/>
+    <sheet name="20180611_Open" sheetId="27" r:id="rId16"/>
+    <sheet name="20180608_Open" sheetId="26" r:id="rId17"/>
+    <sheet name="20180607_Open" sheetId="25" r:id="rId18"/>
+    <sheet name="20180606_Open" sheetId="24" r:id="rId19"/>
+    <sheet name="20180605_Open" sheetId="23" r:id="rId20"/>
+    <sheet name="20180604_Open " sheetId="22" r:id="rId21"/>
+    <sheet name="20180601_Open" sheetId="21" r:id="rId22"/>
+    <sheet name="20180531_Open" sheetId="20" r:id="rId23"/>
+    <sheet name="20180530_Open" sheetId="19" r:id="rId24"/>
+    <sheet name="20180529_Open" sheetId="18" r:id="rId25"/>
+    <sheet name="20180528_Open" sheetId="17" r:id="rId26"/>
+    <sheet name="20180525_Open" sheetId="16" r:id="rId27"/>
+    <sheet name="20180524_Open" sheetId="15" r:id="rId28"/>
+    <sheet name="20180523_Open" sheetId="14" r:id="rId29"/>
+    <sheet name="20180522_Open" sheetId="13" r:id="rId30"/>
+    <sheet name="20180521_Open" sheetId="12" r:id="rId31"/>
+    <sheet name="20180518_Open" sheetId="11" r:id="rId32"/>
+    <sheet name="20180517_Open" sheetId="10" r:id="rId33"/>
+    <sheet name="20180516_Open" sheetId="9" r:id="rId34"/>
+    <sheet name="20180515_Open " sheetId="8" r:id="rId35"/>
+    <sheet name="20180514_Open" sheetId="7" r:id="rId36"/>
+    <sheet name="20180511_Open " sheetId="6" r:id="rId37"/>
+    <sheet name="20180510_Open" sheetId="5" r:id="rId38"/>
+    <sheet name="20180509_Open" sheetId="4" r:id="rId39"/>
+    <sheet name="20180508_Open" sheetId="3" r:id="rId40"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -776,6 +777,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -854,22 +871,6 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Dyc:
-9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1190,6 +1191,22 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="E2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B7" authorId="0" shapeId="0">
       <text>
         <r>
@@ -1263,6 +1280,32 @@
 </file>
 
 <file path=xl/comments38.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Dyc:
+9月19日期指交割，当月合约多头市值15,753,600,因此实际Cash Delta 为 -2，732，425</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments39.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -1541,7 +1584,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="14">
   <si>
     <t>Cash Delta</t>
     <phoneticPr fontId="19" type="noConversion"/>
@@ -2593,7 +2636,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -2626,7 +2669,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>969529</v>
+        <v>1074339</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2634,13 +2677,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>43228407.590000004</v>
+        <v>32244454.359999999</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>200557</v>
+        <v>104810</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2660,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>366702</v>
+        <v>867189</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
@@ -2674,13 +2717,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>527620</v>
+        <v>499902</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>2107</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2688,7 +2731,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>3098</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2696,7 +2739,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4844</v>
+        <v>-4162</v>
       </c>
     </row>
   </sheetData>
@@ -2744,7 +2787,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>478440</v>
+        <v>623911</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2752,13 +2795,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81961840.709999993</v>
+        <v>69567134.430000007</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>50910</v>
+        <v>145471</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2778,13 +2821,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>1356979</v>
+        <v>326166</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6958</v>
+        <v>6713</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2792,13 +2835,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>758128</v>
+        <v>589682</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>531</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2806,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>15643</v>
+        <v>15169</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2814,7 +2857,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4699</v>
+        <v>-5345</v>
       </c>
     </row>
   </sheetData>
@@ -2862,7 +2905,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>427530</v>
+        <v>478440</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2870,13 +2913,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>81185862.390000001</v>
+        <v>81961840.709999993</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>16901</v>
+        <v>50910</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2896,13 +2939,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>650982</v>
+        <v>1356979</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>6831</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2910,13 +2953,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>738389</v>
+        <v>758128</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>573</v>
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2924,7 +2967,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>13704</v>
+        <v>15643</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -2932,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4428</v>
+        <v>-4699</v>
       </c>
     </row>
   </sheetData>
@@ -2943,6 +2986,124 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>427530</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>81185862.390000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>16901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>650982</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>6831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>738389</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4428</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3060,7 +3221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3178,7 +3339,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3271,124 +3432,6 @@
       </c>
       <c r="E8" s="3">
         <v>670</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>16281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-5228</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>349547</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>58464888.670000002</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1950640</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>5315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>892884</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3452,7 +3495,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>348011</v>
+        <v>349547</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -3460,13 +3503,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>65020953.43</v>
+        <v>58464888.670000002</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>42246</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -3486,13 +3529,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-378503</v>
+        <v>1950640</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>5231</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -3500,13 +3543,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>857371</v>
+        <v>892884</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>592</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3514,7 +3557,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20694</v>
+        <v>16281</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3522,7 +3565,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-4606</v>
+        <v>-5228</v>
       </c>
     </row>
   </sheetData>
@@ -3533,6 +3576,124 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>348011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>65020953.43</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>42246</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-378503</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>857371</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4606</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3650,7 +3811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3768,7 +3929,125 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>969529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43228407.590000004</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>200557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>366702</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>527620</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4844</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3877,240 +4156,6 @@
       </c>
       <c r="B10" s="1">
         <v>-4650</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>768972</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>82909548.519999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>19979</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-2035096</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>722742</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>10020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-6137</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="6"/>
-    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2">
-        <v>131310386.16000001</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>240574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43776102.269999996</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>55664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>-721746</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3759</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="10">
-        <v>471960</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="3">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="10">
-        <v>18527</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -4158,7 +4203,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="1">
-        <v>184911</v>
+        <v>240574</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4166,13 +4211,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>42540460.810000002</v>
+        <v>43776102.269999996</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1">
-        <v>36144</v>
+        <v>55664</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4192,13 +4237,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="1">
-        <v>-1961590</v>
+        <v>-721746</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="3">
-        <v>3433</v>
+        <v>3759</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -4206,13 +4251,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="10">
-        <v>512768</v>
+        <v>471960</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="3">
-        <v>687</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -4220,7 +4265,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="10">
-        <v>20183</v>
+        <v>18527</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -4228,7 +4273,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>-3163</v>
+        <v>-2826</v>
       </c>
     </row>
   </sheetData>
@@ -4239,6 +4284,124 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>184911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42540460.810000002</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>36144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1961590</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>512768</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>20183</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4356,7 +4519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4474,7 +4637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4592,7 +4755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4710,7 +4873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4828,7 +4991,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -4946,7 +5109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5064,7 +5227,123 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>131310386.16000001</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>768972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>82909548.519999996</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>19979</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-2035096</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>722742</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-6137</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -5182,7 +5461,1067 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>22126331.399999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>94153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18037315.649999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>14507</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>605145</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>621968</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>13002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-4304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>79646</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>14871302.1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>44916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>200470</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>446611</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-3245</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>34730</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10034727.300000001</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-224561</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>203749</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>7750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-1556</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30457</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>6858332.5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>390118</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>33201</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-299</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="4" max="4" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
+        <v>31326279.579999998</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
+        <v>19047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
+        <v>15342064.699999999</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>674288</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10">
+        <v>26845</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-81</v>
+      </c>
+    </row>
+